--- a/Designer/Export/Output/Rule/R_ItemData.xlsx
+++ b/Designer/Export/Output/Rule/R_ItemData.xlsx
@@ -150,7 +150,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="9a876139-9228-4919-a1fd-adc169feb0c6" xfId="1"/>
+    <cellStyle name="6a277020-9750-4802-86bd-f672f613f1cc" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
